--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -543,13 +543,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -584,13 +588,17 @@
           <t>FK Hånd til Munn</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -666,13 +674,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Erudio Herrer</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -633,13 +633,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Hybrida FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -777,13 +777,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Hybrida FK</t>
@@ -859,13 +863,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>Energi FK</t>
@@ -941,13 +949,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>45690</v>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>45690</v>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45690</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45690</v>
+        <v>2</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -822,13 +822,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1175,13 +1175,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="n">
+        <v>15</v>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>CAF</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1052,13 +1052,17 @@
           <t>Hybrida FK</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Erudio Herrer</t>
@@ -1315,13 +1319,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -1356,13 +1364,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>Marin FK</t>
@@ -1397,13 +1409,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>
@@ -1438,13 +1454,17 @@
           <t>FK Hånd til Munn</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>Hybrida FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1138,13 +1138,17 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Omega FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1680,13 +1680,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="n">
+        <v>9</v>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Omega FK</t>
@@ -1721,13 +1725,17 @@
           <t>Hybrida FK</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>
@@ -1762,13 +1770,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
+      <c r="B34" t="n">
+        <v>3</v>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>Erudio Herrer</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1639,13 +1639,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>12</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1097,13 +1097,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -2000,13 +2000,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -2041,13 +2045,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Marin FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1877,13 +1877,17 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -2185,13 +2189,17 @@
           <t>Elektra FK</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="n">
+        <v>3</v>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Hybrida FK</t>
@@ -2226,13 +2234,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>4</v>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="n">
+        <v>3</v>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>
@@ -2267,13 +2279,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>
@@ -2308,13 +2324,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Energi FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -2423,13 +2423,17 @@
           <t>Datakameratene FK</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>FK Hånd til Munn</t>
@@ -2464,13 +2468,17 @@
           <t>CAF</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -2505,13 +2513,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Marin FK</t>
@@ -2546,13 +2558,17 @@
           <t>Hybrida FK</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Omega FK</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -1922,13 +1922,17 @@
           <t>FK Hånd til Munn</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
+      <c r="B38" t="n">
+        <v>3</v>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>Erudio Herrer</t>

--- a/Scripts/Kamper/H25/B-Avdeling.xlsx
+++ b/Scripts/Kamper/H25/B-Avdeling.xlsx
@@ -2702,13 +2702,17 @@
           <t>Omega FK</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr"/>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>CAF</t>
@@ -2743,13 +2747,17 @@
           <t>Energi FK</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
+      <c r="B59" t="n">
+        <v>4</v>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>Hybrida FK</t>
@@ -2784,13 +2792,17 @@
           <t>Erudio Herrer</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
+      <c r="B60" t="n">
+        <v>4</v>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>Elektra FK</t>
@@ -2866,13 +2878,17 @@
           <t>Marin FK</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
+      <c r="B62" t="n">
+        <v>2</v>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>v</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Datakameratene FK</t>
